--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_1.xlsx
@@ -478,497 +478,497 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_1</t>
+          <t>model_4_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01089158890445086</v>
+        <v>0.5793153337380459</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05628571903283452</v>
+        <v>-0.2534161772129078</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04666725813166095</v>
+        <v>0.731265211607491</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04757501726346058</v>
+        <v>0.649680000174929</v>
       </c>
       <c r="F2" t="n">
-        <v>1.094651579856873</v>
+        <v>0.4655739665031433</v>
       </c>
       <c r="G2" t="n">
-        <v>1.406936168670654</v>
+        <v>0.1982347369194031</v>
       </c>
       <c r="H2" t="n">
-        <v>2.03948187828064</v>
+        <v>0.3978950381278992</v>
       </c>
       <c r="I2" t="n">
-        <v>1.704604744911194</v>
+        <v>0.2921925783157349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_2</t>
+          <t>model_4_1_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01351922447479248</v>
+        <v>0.5934364595711265</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06357306816680608</v>
+        <v>-0.2260355343000739</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03694231745837451</v>
+        <v>0.58731565059817</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04525281561484618</v>
+        <v>0.5321768054988798</v>
       </c>
       <c r="F3" t="n">
-        <v>1.091743588447571</v>
+        <v>0.4499460160732269</v>
       </c>
       <c r="G3" t="n">
-        <v>1.416642665863037</v>
+        <v>0.1939043551683426</v>
       </c>
       <c r="H3" t="n">
-        <v>2.020532369613647</v>
+        <v>0.6110301613807678</v>
       </c>
       <c r="I3" t="n">
-        <v>1.700826048851013</v>
+        <v>0.3901989161968231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_3</t>
+          <t>model_4_1_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01576478859527486</v>
+        <v>0.6118501712576001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.06398253084337746</v>
+        <v>0.1142001699080725</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02917046029027137</v>
+        <v>0.5044302771241904</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04105061874495952</v>
+        <v>0.497091773921147</v>
       </c>
       <c r="F4" t="n">
-        <v>1.089258432388306</v>
+        <v>0.4295674860477448</v>
       </c>
       <c r="G4" t="n">
-        <v>1.417188048362732</v>
+        <v>0.1400941908359528</v>
       </c>
       <c r="H4" t="n">
-        <v>2.005388498306274</v>
+        <v>0.7337521910667419</v>
       </c>
       <c r="I4" t="n">
-        <v>1.69398832321167</v>
+        <v>0.4194623827934265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_9</t>
+          <t>model_4_1_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01710883123495854</v>
+        <v>0.6463244758400377</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06663475421857012</v>
+        <v>0.007055900841264617</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02767921197134116</v>
+        <v>0.4939481396849659</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04135962413335292</v>
+        <v>0.4775788538934439</v>
       </c>
       <c r="F5" t="n">
-        <v>1.087770819664001</v>
+        <v>0.3914145827293396</v>
       </c>
       <c r="G5" t="n">
-        <v>1.42072057723999</v>
+        <v>0.1570396423339844</v>
       </c>
       <c r="H5" t="n">
-        <v>2.002482891082764</v>
+        <v>0.7492722868919373</v>
       </c>
       <c r="I5" t="n">
-        <v>1.694491028785706</v>
+        <v>0.4357375800609589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_13</t>
+          <t>model_4_1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01719388694157453</v>
+        <v>0.6716646938212357</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06635639948859473</v>
+        <v>-0.234963522721598</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02885303647722837</v>
+        <v>0.4938031997392572</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04190048316335826</v>
+        <v>0.4531631416300884</v>
       </c>
       <c r="F6" t="n">
-        <v>1.087676763534546</v>
+        <v>0.363370418548584</v>
       </c>
       <c r="G6" t="n">
-        <v>1.420349836349487</v>
+        <v>0.1953163743019104</v>
       </c>
       <c r="H6" t="n">
-        <v>2.004770040512085</v>
+        <v>0.7494868636131287</v>
       </c>
       <c r="I6" t="n">
-        <v>1.695371150970459</v>
+        <v>0.4561020731925964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_24</t>
+          <t>model_4_1_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.688998071849712</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-1.419340977770501</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4587876969428301</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.3050162971266849</v>
       </c>
       <c r="F7" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3441874980926514</v>
       </c>
       <c r="G7" t="n">
-        <v>1.419843792915344</v>
+        <v>0.3826322555541992</v>
       </c>
       <c r="H7" t="n">
-        <v>2.005413770675659</v>
+        <v>0.801331639289856</v>
       </c>
       <c r="I7" t="n">
-        <v>1.695406198501587</v>
+        <v>0.5796674489974976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_23</t>
+          <t>model_4_1_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.73452099720449</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-2.958703157535435</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4953981076502241</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.1810691489896832</v>
       </c>
       <c r="F8" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2938070297241211</v>
       </c>
       <c r="G8" t="n">
-        <v>1.419843792915344</v>
+        <v>0.6260910034179688</v>
       </c>
       <c r="H8" t="n">
-        <v>2.005413770675659</v>
+        <v>0.7471253871917725</v>
       </c>
       <c r="I8" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6830485463142395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_17</t>
+          <t>model_4_1_6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7444548878956501</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-2.137310780394538</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4924937278674798</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.2610987530986471</v>
       </c>
       <c r="F9" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2828131318092346</v>
       </c>
       <c r="G9" t="n">
-        <v>1.419843792915344</v>
+        <v>0.4961831867694855</v>
       </c>
       <c r="H9" t="n">
-        <v>2.005413770675659</v>
+        <v>0.7514257431030273</v>
       </c>
       <c r="I9" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6162979006767273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_18</t>
+          <t>model_4_1_7</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7500051154060945</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-2.321294166027235</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.5420464360908998</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.2840250922246237</v>
       </c>
       <c r="F10" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2766706645488739</v>
       </c>
       <c r="G10" t="n">
-        <v>1.419843792915344</v>
+        <v>0.5252811908721924</v>
       </c>
       <c r="H10" t="n">
-        <v>2.005413770675659</v>
+        <v>0.6780567765235901</v>
       </c>
       <c r="I10" t="n">
-        <v>1.695406198501587</v>
+        <v>0.5971755981445312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_19</t>
+          <t>model_4_1_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7806382882113113</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-1.903541032852587</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4156733573925757</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.2203934722322193</v>
       </c>
       <c r="F11" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2427687793970108</v>
       </c>
       <c r="G11" t="n">
-        <v>1.419843792915344</v>
+        <v>0.4592112302780151</v>
       </c>
       <c r="H11" t="n">
-        <v>2.005413770675659</v>
+        <v>0.8651677370071411</v>
       </c>
       <c r="I11" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6502490043640137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_20</t>
+          <t>model_4_1_23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7824054340221815</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-1.955371415459466</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4283182592961361</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.2257524660124592</v>
       </c>
       <c r="F12" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2408130615949631</v>
       </c>
       <c r="G12" t="n">
-        <v>1.419843792915344</v>
+        <v>0.4674084484577179</v>
       </c>
       <c r="H12" t="n">
-        <v>2.005413770675659</v>
+        <v>0.8464453816413879</v>
       </c>
       <c r="I12" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6457791924476624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_21</t>
+          <t>model_4_1_24</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7827036232227498</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-1.981733855791226</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4320094411535197</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.2261908852970195</v>
       </c>
       <c r="F13" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2404830455780029</v>
       </c>
       <c r="G13" t="n">
-        <v>1.419843792915344</v>
+        <v>0.4715777933597565</v>
       </c>
       <c r="H13" t="n">
-        <v>2.005413770675659</v>
+        <v>0.8409801721572876</v>
       </c>
       <c r="I13" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6454135775566101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_22</t>
+          <t>model_4_1_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.783005355554469</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-1.970824664933331</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4364500549024534</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.230994529534685</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087675213813782</v>
+        <v>0.24014912545681</v>
       </c>
       <c r="G14" t="n">
-        <v>1.419843792915344</v>
+        <v>0.4698525071144104</v>
       </c>
       <c r="H14" t="n">
-        <v>2.005413770675659</v>
+        <v>0.8344053030014038</v>
       </c>
       <c r="I14" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6414069533348083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_16</t>
+          <t>model_4_1_20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7838483990099369</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.06597639946921285</v>
+        <v>-1.9328242379294</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0291834365444914</v>
+        <v>0.4384129226106575</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04192199249506845</v>
+        <v>0.236449320930242</v>
       </c>
       <c r="F15" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2392161190509796</v>
       </c>
       <c r="G15" t="n">
-        <v>1.419843792915344</v>
+        <v>0.463842511177063</v>
       </c>
       <c r="H15" t="n">
-        <v>2.005413770675659</v>
+        <v>0.8314990401268005</v>
       </c>
       <c r="I15" t="n">
-        <v>1.695406198501587</v>
+        <v>0.6368573307991028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_14</t>
+          <t>model_4_1_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01722819149729393</v>
+        <v>0.7841268635623901</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06594818311363837</v>
+        <v>-2.11841709116253</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02906570983018009</v>
+        <v>0.4857550981270535</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.04184342264840391</v>
+        <v>0.2573657293777287</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087638854980469</v>
+        <v>0.2389079481363297</v>
       </c>
       <c r="G16" t="n">
-        <v>1.419806241989136</v>
+        <v>0.4931950569152832</v>
       </c>
       <c r="H16" t="n">
-        <v>2.005184412002563</v>
+        <v>0.7614030838012695</v>
       </c>
       <c r="I16" t="n">
-        <v>1.695278406143188</v>
+        <v>0.6194114685058594</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_15</t>
+          <t>model_4_1_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01723780692040633</v>
+        <v>0.784536422051752</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06603232797281366</v>
+        <v>-2.232379755010871</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02896467710429707</v>
+        <v>0.4982842984373507</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.04182294672908449</v>
+        <v>0.2563926788329911</v>
       </c>
       <c r="F17" t="n">
-        <v>1.087628126144409</v>
+        <v>0.2384546846151352</v>
       </c>
       <c r="G17" t="n">
-        <v>1.419918298721313</v>
+        <v>0.5112188458442688</v>
       </c>
       <c r="H17" t="n">
-        <v>2.004987478256226</v>
+        <v>0.7428520917892456</v>
       </c>
       <c r="I17" t="n">
-        <v>1.695244908332825</v>
+        <v>0.6202231049537659</v>
       </c>
     </row>
     <row r="18">
@@ -978,276 +978,276 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0174098137240466</v>
+        <v>0.7848892547126597</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.06557047945276118</v>
+        <v>-2.199723449027847</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02829760708188633</v>
+        <v>0.5045369125803407</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04124689888483957</v>
+        <v>0.2648952486782169</v>
       </c>
       <c r="F18" t="n">
-        <v>1.087437868118286</v>
+        <v>0.2380642145872116</v>
       </c>
       <c r="G18" t="n">
-        <v>1.419303178787231</v>
+        <v>0.506054162979126</v>
       </c>
       <c r="H18" t="n">
-        <v>2.003687858581543</v>
+        <v>0.7335942983627319</v>
       </c>
       <c r="I18" t="n">
-        <v>1.694307684898376</v>
+        <v>0.6131313443183899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_12</t>
+          <t>model_4_1_9</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0174255113762114</v>
+        <v>0.7849409168517671</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06601262161513821</v>
+        <v>-2.333645170731309</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02813083837532293</v>
+        <v>0.5754956982896902</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04134452047287929</v>
+        <v>0.3107279686110793</v>
       </c>
       <c r="F19" t="n">
-        <v>1.087420344352722</v>
+        <v>0.2380070388317108</v>
       </c>
       <c r="G19" t="n">
-        <v>1.419891953468323</v>
+        <v>0.5272345542907715</v>
       </c>
       <c r="H19" t="n">
-        <v>2.003362655639648</v>
+        <v>0.6285310387611389</v>
       </c>
       <c r="I19" t="n">
-        <v>1.694466590881348</v>
+        <v>0.5749034881591797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_11</t>
+          <t>model_4_1_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01753670170950894</v>
+        <v>0.7853476558508574</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06597269257261296</v>
+        <v>-1.967861070136476</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.02770066746172906</v>
+        <v>0.4511464998161359</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.04108481391512875</v>
+        <v>0.2435693634960236</v>
       </c>
       <c r="F20" t="n">
-        <v>1.087297320365906</v>
+        <v>0.2375569045543671</v>
       </c>
       <c r="G20" t="n">
-        <v>1.419838786125183</v>
+        <v>0.4693837761878967</v>
       </c>
       <c r="H20" t="n">
-        <v>2.002524614334106</v>
+        <v>0.8126453757286072</v>
       </c>
       <c r="I20" t="n">
-        <v>1.694043874740601</v>
+        <v>0.6309186816215515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_8</t>
+          <t>model_4_1_18</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01757381513276424</v>
+        <v>0.7865479563656217</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06660106523000997</v>
+        <v>-1.988964198252747</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02583944307868369</v>
+        <v>0.4610499642197532</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.04030827396893599</v>
+        <v>0.2497249330861735</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0872563123703</v>
+        <v>0.2362284958362579</v>
       </c>
       <c r="G21" t="n">
-        <v>1.420675754547119</v>
+        <v>0.4727213680744171</v>
       </c>
       <c r="H21" t="n">
-        <v>1.998897790908813</v>
+        <v>0.7979820966720581</v>
       </c>
       <c r="I21" t="n">
-        <v>1.692780494689941</v>
+        <v>0.6257843971252441</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_7</t>
+          <t>model_4_1_17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01770777428060188</v>
+        <v>0.7867577947907832</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06596312707953023</v>
+        <v>-1.977391013314463</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02518320337927493</v>
+        <v>0.4618971149862622</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.03966200347361393</v>
+        <v>0.2515942440052799</v>
       </c>
       <c r="F22" t="n">
-        <v>1.087108016014099</v>
+        <v>0.2359962910413742</v>
       </c>
       <c r="G22" t="n">
-        <v>1.419826030731201</v>
+        <v>0.470890998840332</v>
       </c>
       <c r="H22" t="n">
-        <v>1.997619152069092</v>
+        <v>0.7967277765274048</v>
       </c>
       <c r="I22" t="n">
-        <v>1.691728591918945</v>
+        <v>0.6242253184318542</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_0</t>
+          <t>model_4_1_14</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01775117181999075</v>
+        <v>0.7871362402657578</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02422335075221049</v>
+        <v>-1.892209719231161</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01717968221405641</v>
+        <v>0.4585359746420322</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01706350091183517</v>
+        <v>0.2573366356287385</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08705997467041</v>
+        <v>0.2355774641036987</v>
       </c>
       <c r="G23" t="n">
-        <v>1.364230036735535</v>
+        <v>0.4574190676212311</v>
       </c>
       <c r="H23" t="n">
-        <v>1.982023954391479</v>
+        <v>0.8017043471336365</v>
       </c>
       <c r="I23" t="n">
-        <v>1.654956698417664</v>
+        <v>0.6194357872009277</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_6</t>
+          <t>model_4_1_13</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01790292484555156</v>
+        <v>0.7879788052212902</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.06615710792046103</v>
+        <v>-2.090189000402007</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0242075765936316</v>
+        <v>0.4906451133452967</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03919628241212991</v>
+        <v>0.2642863048164229</v>
       </c>
       <c r="F24" t="n">
-        <v>1.086892127990723</v>
+        <v>0.2346449941396713</v>
       </c>
       <c r="G24" t="n">
-        <v>1.420084476470947</v>
+        <v>0.4887305796146393</v>
       </c>
       <c r="H24" t="n">
-        <v>1.995718121528625</v>
+        <v>0.7541627883911133</v>
       </c>
       <c r="I24" t="n">
-        <v>1.690970897674561</v>
+        <v>0.613639235496521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_4</t>
+          <t>model_4_1_15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01814644608484339</v>
+        <v>0.7880221814841407</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.06540980893974524</v>
+        <v>-1.944176118800485</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02243204843768232</v>
+        <v>0.4692465899582517</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.03787187777475665</v>
+        <v>0.2610670873984728</v>
       </c>
       <c r="F25" t="n">
-        <v>1.086622595787048</v>
+        <v>0.2345969974994659</v>
       </c>
       <c r="G25" t="n">
-        <v>1.419089078903198</v>
+        <v>0.4656378328800201</v>
       </c>
       <c r="H25" t="n">
-        <v>1.992258429527283</v>
+        <v>0.7858459949493408</v>
       </c>
       <c r="I25" t="n">
-        <v>1.688815832138062</v>
+        <v>0.616324245929718</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_1_5</t>
+          <t>model_4_1_16</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0183489937531931</v>
+        <v>0.7886764254752756</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.06576657314861767</v>
+        <v>-1.975321432938325</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02230668283940052</v>
+        <v>0.4732165214130417</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03795583485500154</v>
+        <v>0.2612580822486555</v>
       </c>
       <c r="F26" t="n">
-        <v>1.086398363113403</v>
+        <v>0.2338729202747345</v>
       </c>
       <c r="G26" t="n">
-        <v>1.419564247131348</v>
+        <v>0.4705636203289032</v>
       </c>
       <c r="H26" t="n">
-        <v>1.992014169692993</v>
+        <v>0.7799680233001709</v>
       </c>
       <c r="I26" t="n">
-        <v>1.688952445983887</v>
+        <v>0.6161649823188782</v>
       </c>
     </row>
   </sheetData>
